--- a/Data/Original_Excel/popsize_accepted.xlsx
+++ b/Data/Original_Excel/popsize_accepted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rclar\Dropbox\Pinsky_Lab\Funding\Temporal_Genomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rclar\Dropbox\Pinsky_Lab\Temporal_Genomics_WG\SoF_Analyses\Data\Original_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2213" documentId="8_{67CA022D-9E31-4F50-A3B4-09FE2D06381C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10AFC358-97A7-4539-BABC-A582C3065D61}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C29F0D-2BFA-4CE6-8C54-2B84B1AC8B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19156" windowHeight="13875" xr2:uid="{C5FAAA6F-969B-4B3E-9EA5-04EA2395B12C}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5FAAA6F-969B-4B3E-9EA5-04EA2395B12C}"/>
   </bookViews>
   <sheets>
     <sheet name="popsize_accepted" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="1460">
   <si>
     <t>Article_Number</t>
   </si>
@@ -1364,6 +1365,9 @@
     <t>Bellbekken</t>
   </si>
   <si>
+    <t>2004.01.01,2003.01.01,2002.01.01</t>
+  </si>
+  <si>
     <t>Salt-based method outlined in Aljanabi &amp; Martinez (1997)</t>
   </si>
   <si>
@@ -1769,13 +1773,13 @@
     <t>10.1111/j.1365-294X.2007.03453.x</t>
   </si>
   <si>
-    <t>Riviere Ashuapmushuan,Riviere Ashuapmushuan,Riviere Metabetchouane,Riviere Ouasiemsca</t>
-  </si>
-  <si>
-    <t>1994.01.01,1981.01.01,1980.01.01,1978.01.01,1970.01.01</t>
-  </si>
-  <si>
-    <t>50.50.50.50,18.23.22,29,47,46.49,45.41</t>
+    <t>Riviere Ashuapmushuan.Riviere Aux Saumons.Riviere Metabetchouane.Riviere Ouasiemsca,Riviere Metabetchouane,Riviere Ouasiemsca,Riviere Ashuapmushuan,Riviere Aux Saumons</t>
+  </si>
+  <si>
+    <t>1994.01.01,1981.01.01,1980.01.01,1970.01.01</t>
+  </si>
+  <si>
+    <t>43.37.42.36,38,37,39,40</t>
   </si>
   <si>
     <t>Pro K</t>
@@ -1784,13 +1788,13 @@
     <t>multiple sampling schemes with some populations only having 1 sample, others have multiple; they used 6 different methods for estimating metrics; multiple extraction types: (Tessier 1999, pro K (Estoup 1996); Ostergaard 2003, Chelex resin (Estoup 1996); Hansen 2002, phenol-chlorophorm (Nielsen 1999) and/or proK-chelex (Estoup 1996)); Salmo salmar; Ashuapmushuan: 1994 &amp; 1978, Aux Saumons: 1994 &amp; 1970, Metabetchouane: 1994 &amp; 1981, Ouasiemsca: 1994 &amp; 1980</t>
   </si>
   <si>
-    <t>Blykobbe River,Dondals River,Tejn River,Vellens River</t>
-  </si>
-  <si>
-    <t>1997.01.01,1992.01.01,1966.01.01,1951.01.01,1950.01.01,1944.01.01</t>
-  </si>
-  <si>
-    <t>43.37.42.36,38,37,39,40</t>
+    <t>Veijle River,Blykobbe River.Dondals River.Tejn River.Vellens River,Karup River.Kovads River,Blykobbe River,Karup River,Dondals River.Tejn River.Vellens River,Dondals River,Kovads River,Karup River.Tejn River,Blykobbe River.Vellens River,Tejn River,Karup River,Veijle River</t>
+  </si>
+  <si>
+    <t>1998.01.01,1997.01.01,1996.01.01,1994.01.01,1993.01.01,1992.01.01,1966.01.01,1953.01.01,1951.01.01,1950.01.01,1944.01.01,1912.01.01,1910.01.01</t>
+  </si>
+  <si>
+    <t>50,50.50.50.50,72.50,45,49,18.23.22,29,36,68.47,46.49,41,47,40</t>
   </si>
   <si>
     <t>multiple sampling schemes with some populations only having 1 sample, others have multiple; they used 6 different methods for estimating metrics; multiple extraction types: (Tessier 1999, pro K (Estoup 1996); Ostergaard 2003, Chelex resin (Estoup 1996); Hansen 2002, phenol-chlorophorm (Nielsen 1999) and/or proK-chelex (Estoup 1996)); Salmo trutta, Blykobbe: 1997, 1950 &amp; 1944, Dondals: 1997, 1992 &amp; 1966, Tejn: 1997, 1992, 1951 &amp; 1944, Vellens: 1997, 1992 &amp; 1950</t>
@@ -1811,10 +1815,7 @@
     <t>10.1007/s10592-010-0154-0</t>
   </si>
   <si>
-    <t>Green island, Korapuki island</t>
-  </si>
-  <si>
-    <t>samples and periods are given, but later grouped for genetic analyses in ways that combined periods/locations so you cannot really decipher temporal comparisons; driver not really invasive, they were extirpated bc of invasives and then reintroduced, but the historical comparisons are between reintroduced and source pops, not with before and after invasive species</t>
+    <t>reject bc no real temporal analysis (all contemporary data)</t>
   </si>
   <si>
     <t>Rise and fall of a wolf population: genetic diversity and structure during recovery, rapid expansion and drastic decline</t>
@@ -2060,22 +2061,7 @@
     <t>KJ</t>
   </si>
   <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>White Island</t>
-  </si>
-  <si>
-    <t>2000.01.01,1999.01.01,1998.01.01,1997.01.01,1996.01.01,1995.01.01,1994.01.01,1993.01.01,1992.01.01,1991.01.01,1990.01.01,1989.01.01,1988.01.01</t>
-  </si>
-  <si>
-    <t>10,6,9,7,7,3,5,3,5,2,1,8,18</t>
-  </si>
-  <si>
-    <t>QIAamp columns</t>
-  </si>
-  <si>
-    <t>Article is very sketchy w/r/t sampling ("dermal or blood samples"), preservation (maybe frozen b/c Antarctica?). Sampling dates were not reported, but birth years were. 1989 = individuals assigned to parents known to have been pre-1990, 1988 = individuals of unknown age with no parents (could be much older than 1988).  Three "generations" present in sample. Isolated colony could have been produced by climate change (so maybe anthropogenic?)</t>
+    <t>reject bc article is very sketchy w/r/t sampling ("dermal or blood samples"), preservation (maybe frozen b/c Antarctica?). Sampling dates were not reported, but birth years were. 1989 = individuals assigned to parents known to have been pre-1990, 1988 = individuals of unknown age with no parents (could be much older than 1988).  Three "generations" present in sample. Isolated colony could have been produced by climate change (so maybe anthropogenic?)</t>
   </si>
   <si>
     <t>Temporal changes and effective population size of an Italian isolated and supportive-breeding managed northern pike (Esox lucius) population</t>
@@ -2183,22 +2169,7 @@
     <t>JOURNAL OF APPLIED ECOLOGY</t>
   </si>
   <si>
-    <t>Italy, France</t>
-  </si>
-  <si>
-    <t>Western Alps</t>
-  </si>
-  <si>
-    <t>2006.04.01,2005.12.01,2005.04.01,2004.12.01,2004.04.01,2003.12.01,2003.04.01,2002.12.01,2002.04.01,2001.12.01,2001.04.01,2000.12.01,2000.04.01,1999.12.01</t>
-  </si>
-  <si>
-    <t>17,15,26,25,23,23,15,17,14,18,11,10,11,12</t>
-  </si>
-  <si>
-    <t>Qiagen and QIAmp</t>
-  </si>
-  <si>
-    <t>samples were scat; no driver, basically proof of method; generation time from https://www.semanticscholar.org/paper/Wolf-%28Canis-lupus%29-Generation-Time-and-Proportion-Mech-Barber%E2%80%90Meyer/7a06741063736b0a694e85728ce5959204ce2367; April represents midpoint of Feb-May, Dec represents midpoint of Oct-Jan, sample sizes estimated from # genotypes sampled in Fig 2</t>
+    <t>reject bc no real temporal analysis (historical DNA just used to ID individuals)</t>
   </si>
   <si>
     <t>Genetic diversity through time and space: diversity and demographic history from natural history specimens and serially sampled contemporary populations of the threatened Gouldian finch (Erythrura gouldiae)</t>
@@ -2255,26 +2226,7 @@
     <t>ZOOLOGICAL SCIENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Mammalia</t>
-  </si>
-  <si>
-    <t>Japan,China</t>
-  </si>
-  <si>
-    <t>Bib.Benten.Onnebetsu.Kushiro-nuasamai.Penakori 1.Osatsu 1.Opaushinai.Setanai-chashi.Usu-oyakotsu.Aoshimanai.Furetoi, Hokkaido.Honshu/Kyushu/China,</t>
-  </si>
-  <si>
-    <t>11.11.15.4.8.1.9.9.11.2.1,6.18</t>
-  </si>
-  <si>
-    <t>Masuda et al., 2001</t>
-  </si>
-  <si>
-    <t>Hitachi SQ-5500</t>
-  </si>
-  <si>
-    <t>mentions ancient but I think bones are only 200-300 year old; genartion time from Kalb et al., 2019.</t>
+    <t>reject bc uses "ancient" DNA (pre-1800s)</t>
   </si>
   <si>
     <t>Investigating Population History Using Temporal Genetic Differentiation</t>
@@ -4471,7 +4423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4524,16 +4476,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4551,7 +4506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4577,7 +4532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4638,14 +4593,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4960,43 +4916,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C628DC1-AE81-40B4-8776-90BC2365CAC2}">
-  <dimension ref="A1:AX224"/>
+  <dimension ref="A1:AX219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" customWidth="1"/>
+    <col min="3" max="3" width="53.59765625" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="12.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="12.1328125" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" customWidth="1"/>
+    <col min="22" max="22" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.3984375" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="15.3984375" customWidth="1"/>
     <col min="26" max="26" width="15" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" customWidth="1"/>
-    <col min="30" max="32" width="19.140625" customWidth="1"/>
+    <col min="28" max="28" width="12.59765625" customWidth="1"/>
+    <col min="29" max="29" width="12.3984375" customWidth="1"/>
+    <col min="30" max="32" width="19.1328125" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="35" width="10.5703125" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" customWidth="1"/>
-    <col min="37" max="37" width="14.7109375" customWidth="1"/>
+    <col min="34" max="35" width="10.59765625" customWidth="1"/>
+    <col min="36" max="36" width="15.1328125" customWidth="1"/>
+    <col min="37" max="37" width="14.73046875" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="16.140625" customWidth="1"/>
+    <col min="39" max="39" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:41" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5118,7 +5074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15.95" customHeight="1">
+    <row r="2" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2418</v>
       </c>
@@ -5237,7 +5193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="15.95" customHeight="1">
+    <row r="3" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2418</v>
       </c>
@@ -5356,7 +5312,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15.95" customHeight="1">
+    <row r="4" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2418</v>
       </c>
@@ -5475,7 +5431,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.95" customHeight="1">
+    <row r="5" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1607</v>
       </c>
@@ -5588,7 +5544,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="15.95" customHeight="1">
+    <row r="6" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1607</v>
       </c>
@@ -5701,7 +5657,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15.95" customHeight="1">
+    <row r="7" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1607</v>
       </c>
@@ -5814,7 +5770,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15.95" customHeight="1">
+    <row r="8" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1607</v>
       </c>
@@ -5927,7 +5883,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="9" spans="1:41" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13">
         <v>680</v>
       </c>
@@ -5971,7 +5927,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="15.95" customHeight="1">
+    <row r="10" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1932</v>
       </c>
@@ -6081,7 +6037,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:41" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="1:41" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13">
         <v>1369</v>
       </c>
@@ -6122,7 +6078,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:41" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:41" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13">
         <v>1414</v>
       </c>
@@ -6163,7 +6119,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="15.95" customHeight="1">
+    <row r="13" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2091</v>
       </c>
@@ -6273,7 +6229,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15.95" customHeight="1">
+    <row r="14" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>7251</v>
       </c>
@@ -6385,7 +6341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="15.95" customHeight="1">
+    <row r="15" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>871</v>
       </c>
@@ -6495,7 +6451,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15.95" customHeight="1">
+    <row r="16" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1771</v>
       </c>
@@ -6605,7 +6561,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="17" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13">
         <v>10285</v>
       </c>
@@ -6646,7 +6602,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.95" customHeight="1">
+    <row r="18" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>8640</v>
       </c>
@@ -6756,7 +6712,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="15.95" customHeight="1">
+    <row r="19" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>5369</v>
       </c>
@@ -6863,7 +6819,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="15.95" customHeight="1">
+    <row r="20" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5484</v>
       </c>
@@ -6973,7 +6929,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="21" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13">
         <v>7068</v>
       </c>
@@ -7017,7 +6973,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="22" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="13">
         <v>10562</v>
       </c>
@@ -7074,7 +7030,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="23" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>1918</v>
       </c>
@@ -7118,7 +7074,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="15.95" customHeight="1">
+    <row r="24" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>3192</v>
       </c>
@@ -7226,7 +7182,7 @@
       </c>
       <c r="AN24" s="11"/>
     </row>
-    <row r="25" spans="1:40" ht="15.95" customHeight="1">
+    <row r="25" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>3192</v>
       </c>
@@ -7334,7 +7290,7 @@
       </c>
       <c r="AN25" s="11"/>
     </row>
-    <row r="26" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="26" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="13">
         <v>5889</v>
       </c>
@@ -7375,7 +7331,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="27" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>5195</v>
       </c>
@@ -7419,7 +7375,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="28" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>7562</v>
       </c>
@@ -7460,7 +7416,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="29" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="13">
         <v>496</v>
       </c>
@@ -7504,7 +7460,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="30" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="16">
         <v>5163</v>
       </c>
@@ -7561,7 +7517,7 @@
       <c r="AB30" s="16"/>
       <c r="AN30" s="16"/>
     </row>
-    <row r="31" spans="1:40" ht="15.95" customHeight="1">
+    <row r="31" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>10078</v>
       </c>
@@ -7668,7 +7624,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="15.95" customHeight="1">
+    <row r="32" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>3735</v>
       </c>
@@ -7772,7 +7728,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="33" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="13">
         <v>5049</v>
       </c>
@@ -7813,7 +7769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="34" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13">
         <v>8316</v>
       </c>
@@ -7854,7 +7810,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="15.95" customHeight="1">
+    <row r="35" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>8433</v>
       </c>
@@ -7958,7 +7914,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="36" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="13">
         <v>10845</v>
       </c>
@@ -8002,7 +7958,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="37" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="13">
         <v>5296</v>
       </c>
@@ -8046,7 +8002,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15.95" customHeight="1">
+    <row r="38" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2345</v>
       </c>
@@ -8147,7 +8103,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="15.95" customHeight="1">
+    <row r="39" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2345</v>
       </c>
@@ -8248,7 +8204,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="15.95" customHeight="1">
+    <row r="40" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2345</v>
       </c>
@@ -8349,7 +8305,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="41" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="13">
         <v>2372</v>
       </c>
@@ -8393,7 +8349,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="42" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="13">
         <v>177</v>
       </c>
@@ -8437,7 +8393,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="43" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="13">
         <v>474</v>
       </c>
@@ -8481,7 +8437,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="44" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="13">
         <v>1959</v>
       </c>
@@ -8525,7 +8481,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="15.95" customHeight="1">
+    <row r="45" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2989</v>
       </c>
@@ -8632,7 +8588,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="46" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13">
         <v>3475</v>
       </c>
@@ -8673,7 +8629,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="15.95" customHeight="1">
+    <row r="47" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>6256</v>
       </c>
@@ -8780,7 +8736,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="15.95" customHeight="1">
+    <row r="48" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>7489</v>
       </c>
@@ -8842,10 +8798,10 @@
         <v>441</v>
       </c>
       <c r="Y48" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>99</v>
+        <v>442</v>
+      </c>
+      <c r="Z48" s="8">
+        <v>214188226</v>
       </c>
       <c r="AA48">
         <v>2263</v>
@@ -8872,7 +8828,7 @@
         <v>214</v>
       </c>
       <c r="AK48" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL48" t="s">
         <v>72</v>
@@ -8881,30 +8837,30 @@
         <v>73</v>
       </c>
       <c r="AN48" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13">
         <v>7696</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G49" s="13">
         <v>2006</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>176</v>
@@ -8925,33 +8881,33 @@
         <v>116</v>
       </c>
       <c r="AN49" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="13">
         <v>9559</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G50" s="13">
         <v>2019</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>262</v>
@@ -8969,33 +8925,33 @@
         <v>116</v>
       </c>
       <c r="AN50" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" ht="15.95" customHeight="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>10434</v>
       </c>
       <c r="C51" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D51" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E51" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F51" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G51">
         <v>2009</v>
       </c>
       <c r="H51" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I51" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
@@ -9028,16 +8984,16 @@
         <v>179</v>
       </c>
       <c r="W51" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X51" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Y51" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z51" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA51">
         <v>1460</v>
@@ -9064,7 +9020,7 @@
         <v>70</v>
       </c>
       <c r="AK51" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL51" t="s">
         <v>72</v>
@@ -9073,30 +9029,30 @@
         <v>73</v>
       </c>
       <c r="AN51" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" ht="15.95" customHeight="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2594</v>
       </c>
       <c r="C52" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D52" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E52" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F52" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G52">
         <v>2007</v>
       </c>
       <c r="H52" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I52" t="s">
         <v>87</v>
@@ -9132,16 +9088,16 @@
         <v>179</v>
       </c>
       <c r="W52" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="X52" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Y52" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z52" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA52">
         <v>365</v>
@@ -9177,30 +9133,30 @@
         <v>73</v>
       </c>
       <c r="AN52" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" ht="15.95" customHeight="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2747</v>
       </c>
       <c r="C53" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D53" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E53" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F53" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G53">
         <v>2018</v>
       </c>
       <c r="H53" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I53" t="s">
         <v>123</v>
@@ -9239,13 +9195,13 @@
         <v>440</v>
       </c>
       <c r="X53" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Y53" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z53" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA53">
         <v>2738</v>
@@ -9272,7 +9228,7 @@
         <v>70</v>
       </c>
       <c r="AK53" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL53" t="s">
         <v>72</v>
@@ -9281,33 +9237,33 @@
         <v>73</v>
       </c>
       <c r="AN53" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="13">
         <v>6005</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G54" s="13">
         <v>2020</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J54" s="13" t="s">
         <v>46</v>
@@ -9325,30 +9281,30 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="55" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="13">
         <v>4789</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G55" s="13">
         <v>2009</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J55" s="13" t="s">
         <v>177</v>
@@ -9375,10 +9331,10 @@
         <v>308</v>
       </c>
       <c r="W55" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="X55" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA55" s="13">
         <v>1387</v>
@@ -9405,7 +9361,7 @@
         <v>70</v>
       </c>
       <c r="AK55" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL55" s="13" t="s">
         <v>72</v>
@@ -9414,33 +9370,33 @@
         <v>73</v>
       </c>
       <c r="AN55" s="13" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="13">
         <v>9936</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G56" s="13">
         <v>2019</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J56" s="13" t="s">
         <v>46</v>
@@ -9458,28 +9414,28 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="57" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="16">
         <v>3984</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G57" s="16">
         <v>2007</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>176</v>
@@ -9497,7 +9453,7 @@
         <v>115</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
@@ -9514,31 +9470,31 @@
       <c r="AA57" s="16"/>
       <c r="AB57" s="16"/>
       <c r="AN57" s="16" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="16">
         <v>6153</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G58" s="16">
         <v>2013</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>150</v>
@@ -9574,28 +9530,28 @@
       <c r="AB58" s="16"/>
       <c r="AN58" s="16"/>
     </row>
-    <row r="59" spans="1:40" ht="15.95" customHeight="1">
+    <row r="59" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="12">
         <v>8619</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G59" s="12">
         <v>2019</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>176</v>
@@ -9628,22 +9584,22 @@
         <v>90</v>
       </c>
       <c r="U59" s="12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V59" s="12" t="s">
         <v>92</v>
       </c>
       <c r="W59" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="X59" s="12" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Y59" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z59" s="12" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA59" s="12">
         <v>5110</v>
@@ -9676,7 +9632,7 @@
         <v>214</v>
       </c>
       <c r="AK59" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL59" t="s">
         <v>72</v>
@@ -9685,31 +9641,31 @@
         <v>73</v>
       </c>
       <c r="AN59" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" ht="15.95" customHeight="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="12">
         <v>380</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G60" s="12">
         <v>2010</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>87</v>
@@ -9752,16 +9708,16 @@
         <v>57</v>
       </c>
       <c r="W60" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="X60" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Y60" s="22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Z60" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA60" s="12">
         <v>4198</v>
@@ -9800,34 +9756,34 @@
         <v>73</v>
       </c>
       <c r="AN60" s="12" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" ht="15.95" customHeight="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="12">
         <v>6586</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G61" s="12">
         <v>2018</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>88</v>
@@ -9867,16 +9823,16 @@
         <v>308</v>
       </c>
       <c r="W61" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X61" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Y61" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AA61" s="12">
         <v>1825</v>
@@ -9903,7 +9859,7 @@
         <v>214</v>
       </c>
       <c r="AK61" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL61" t="s">
         <v>72</v>
@@ -9912,34 +9868,34 @@
         <v>73</v>
       </c>
       <c r="AN61" s="12" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" ht="15.95" customHeight="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="12">
         <v>6586</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G62" s="12">
         <v>2018</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>88</v>
@@ -9979,16 +9935,16 @@
         <v>308</v>
       </c>
       <c r="W62" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X62" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Y62" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z62" s="12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA62" s="12">
         <v>1825</v>
@@ -10015,7 +9971,7 @@
         <v>214</v>
       </c>
       <c r="AK62" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL62" t="s">
         <v>72</v>
@@ -10024,34 +9980,34 @@
         <v>73</v>
       </c>
       <c r="AN62" s="12" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" ht="15.95" customHeight="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="12">
         <v>7726</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G63" s="12">
         <v>2015</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J63" s="12" t="s">
         <v>88</v>
@@ -10091,16 +10047,16 @@
         <v>57</v>
       </c>
       <c r="W63" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X63" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Y63" s="22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Z63" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AA63" s="12">
         <v>365</v>
@@ -10127,7 +10083,7 @@
         <v>214</v>
       </c>
       <c r="AK63" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AL63" t="s">
         <v>72</v>
@@ -10137,31 +10093,31 @@
       </c>
       <c r="AN63" s="12"/>
     </row>
-    <row r="64" spans="1:40" ht="15.95" customHeight="1">
+    <row r="64" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="12">
         <v>9240</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G64" s="12">
         <v>2013</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J64" s="12" t="s">
         <v>88</v>
@@ -10201,15 +10157,15 @@
         <v>57</v>
       </c>
       <c r="W64" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="X64" s="12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Y64" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z64" s="30">
+        <v>573</v>
+      </c>
+      <c r="Z64" s="28">
         <v>193111</v>
       </c>
       <c r="AA64" s="12">
@@ -10250,19 +10206,19 @@
       </c>
       <c r="AN64" s="12"/>
     </row>
-    <row r="65" spans="1:50" ht="15.95" customHeight="1">
+    <row r="65" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="12">
         <v>8833</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>426</v>
@@ -10271,7 +10227,7 @@
         <v>2007</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>87</v>
@@ -10315,13 +10271,13 @@
         <v>428</v>
       </c>
       <c r="X65" s="12" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Y65" s="12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AA65" s="12">
         <v>2007.5</v>
@@ -10348,7 +10304,7 @@
         <v>70</v>
       </c>
       <c r="AK65" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AL65" t="s">
         <v>72</v>
@@ -10357,22 +10313,22 @@
         <v>73</v>
       </c>
       <c r="AN65" s="12" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="66" spans="1:50" ht="15.95" customHeight="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="12">
         <v>8833</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>426</v>
@@ -10381,7 +10337,7 @@
         <v>2007</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>87</v>
@@ -10425,13 +10381,13 @@
         <v>235</v>
       </c>
       <c r="X66" s="12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Y66" s="12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Z66" s="12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AA66" s="12">
         <v>1277.5</v>
@@ -10458,7 +10414,7 @@
         <v>70</v>
       </c>
       <c r="AK66" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AL66" t="s">
         <v>72</v>
@@ -10467,120 +10423,71 @@
         <v>73</v>
       </c>
       <c r="AN66" s="12" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="67" spans="1:50" ht="15.95" customHeight="1">
-      <c r="A67" s="12">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="67" spans="1:50" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="30">
         <v>1379</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="D67" s="12" t="s">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="D67" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="E67" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="G67" s="12">
+      <c r="F67" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="G67" s="30">
         <v>2011</v>
       </c>
-      <c r="H67" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="I67" s="12" t="s">
+      <c r="H67" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="I67" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="J67" s="12" t="s">
+      <c r="J67" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="K67" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="L67" s="12" t="s">
+      <c r="L67" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="M67" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N67" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O67" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P67" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q67" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="U67" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="V67" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="W67" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="X67" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="Y67" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z67" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA67" s="12">
-        <v>1095</v>
-      </c>
-      <c r="AB67" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC67" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD67" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>432</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>531</v>
-      </c>
-      <c r="AL67" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM67" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN67" t="s">
+      <c r="M67" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N67" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
+      <c r="AN67" s="13" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="68" spans="1:50" ht="15.95" customHeight="1">
+    <row r="68" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="12">
         <v>7315</v>
       </c>
@@ -10690,7 +10597,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="69" spans="1:50" ht="15.95" customHeight="1">
+    <row r="69" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="12">
         <v>8156</v>
       </c>
@@ -10800,7 +10707,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="70" spans="1:50" ht="15.95" customHeight="1">
+    <row r="70" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="12">
         <v>8329</v>
       </c>
@@ -10910,7 +10817,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="71" spans="1:50" ht="15.95" customHeight="1">
+    <row r="71" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="12">
         <v>8329</v>
       </c>
@@ -11020,7 +10927,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="72" spans="1:50" ht="15.95" customHeight="1">
+    <row r="72" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="12">
         <v>3053</v>
       </c>
@@ -11074,7 +10981,7 @@
         <v>90</v>
       </c>
       <c r="U72" s="12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>92</v>
@@ -11128,7 +11035,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="73" spans="1:50" ht="15.95" customHeight="1">
+    <row r="73" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="12">
         <v>5695</v>
       </c>
@@ -11237,7 +11144,7 @@
       </c>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:50" ht="15.95" customHeight="1">
+    <row r="74" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="12">
         <v>8930</v>
       </c>
@@ -11345,7 +11252,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="75" spans="1:50" ht="15.95" customHeight="1">
+    <row r="75" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="12">
         <v>9626</v>
       </c>
@@ -11405,7 +11312,7 @@
         <v>57</v>
       </c>
       <c r="W75" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="X75" s="12" t="s">
         <v>664</v>
@@ -11457,149 +11364,101 @@
       </c>
       <c r="AO75" s="11"/>
     </row>
-    <row r="76" spans="1:50" ht="15.95" customHeight="1">
-      <c r="A76" s="12">
+    <row r="76" spans="1:50" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="30">
         <v>7415</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12" t="s">
+      <c r="B76" s="30"/>
+      <c r="C76" s="30" t="s">
         <v>668</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="30">
         <v>2010</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="I76" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K76" s="12" t="s">
+      <c r="K76" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="L76" s="12" t="s">
+      <c r="L76" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="M76" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N76" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O76" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P76" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q76" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="U76" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="V76" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W76" s="12" t="s">
+      <c r="M76" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N76" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="30"/>
+      <c r="U76" s="30"/>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+      <c r="AB76" s="30"/>
+      <c r="AC76" s="30"/>
+      <c r="AD76" s="30"/>
+      <c r="AE76" s="30"/>
+      <c r="AF76" s="30"/>
+      <c r="AG76" s="30"/>
+      <c r="AN76" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="X76" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="Y76" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="Z76" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA76" s="12">
-        <v>3285</v>
-      </c>
-      <c r="AB76" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC76" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD76" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE76" s="12"/>
-      <c r="AF76" s="12"/>
-      <c r="AG76" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>624</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>678</v>
-      </c>
-      <c r="AL76" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM76" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN76" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="AO76" s="12"/>
-      <c r="AP76" s="12"/>
-      <c r="AQ76" s="12"/>
-      <c r="AR76" s="12"/>
-      <c r="AS76" s="12"/>
-      <c r="AT76" s="12"/>
-      <c r="AU76" s="12"/>
-      <c r="AV76" s="12"/>
-      <c r="AW76" s="12"/>
-    </row>
-    <row r="77" spans="1:50" ht="15.95" customHeight="1">
+      <c r="AO76" s="30"/>
+      <c r="AP76" s="30"/>
+      <c r="AQ76" s="30"/>
+      <c r="AR76" s="30"/>
+      <c r="AS76" s="30"/>
+      <c r="AT76" s="30"/>
+      <c r="AU76" s="30"/>
+      <c r="AV76" s="30"/>
+      <c r="AW76" s="30"/>
+    </row>
+    <row r="77" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12">
         <v>8495</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G77" s="12">
         <v>2009</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>123</v>
@@ -11640,16 +11499,16 @@
         <v>92</v>
       </c>
       <c r="W77" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="X77" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="Y77" s="12" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="Z77" s="12" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AA77" s="12">
         <v>2482</v>
@@ -11678,7 +11537,7 @@
         <v>214</v>
       </c>
       <c r="AK77" s="12" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AL77" s="12" t="s">
         <v>72</v>
@@ -11687,7 +11546,7 @@
         <v>73</v>
       </c>
       <c r="AN77" s="12" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AO77" s="12"/>
       <c r="AP77" s="12"/>
@@ -11699,28 +11558,28 @@
       <c r="AV77" s="12"/>
       <c r="AW77" s="12"/>
     </row>
-    <row r="78" spans="1:50" ht="15.95" customHeight="1">
+    <row r="78" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="12">
         <v>10214</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="G78" s="12">
         <v>2004</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>176</v>
@@ -11759,16 +11618,16 @@
         <v>619</v>
       </c>
       <c r="W78" s="12" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="X78" s="12" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="Y78" s="12" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Z78" s="12" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AA78" s="12">
         <v>1642.5</v>
@@ -11791,7 +11650,7 @@
         <v>77</v>
       </c>
       <c r="AI78" s="12" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AJ78" s="12" t="s">
         <v>214</v>
@@ -11806,7 +11665,7 @@
         <v>73</v>
       </c>
       <c r="AN78" s="12" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AO78" s="12"/>
       <c r="AP78" s="12"/>
@@ -11818,28 +11677,28 @@
       <c r="AV78" s="12"/>
       <c r="AW78" s="12"/>
     </row>
-    <row r="79" spans="1:50" ht="15.95" customHeight="1">
+    <row r="79" spans="1:50" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="19">
         <v>3113</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G79" s="19">
         <v>2015</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="I79" s="19" t="s">
         <v>176</v>
@@ -11878,10 +11737,10 @@
         <v>57</v>
       </c>
       <c r="W79" s="19" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="X79" s="19" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="Y79" s="19" t="s">
         <v>99</v>
@@ -11925,7 +11784,7 @@
         <v>73</v>
       </c>
       <c r="AN79" s="12" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="AO79" s="12"/>
       <c r="AP79" s="12"/>
@@ -11938,147 +11797,107 @@
       <c r="AW79" s="12"/>
       <c r="AX79" s="12"/>
     </row>
-    <row r="80" spans="1:50" ht="15.95" customHeight="1">
-      <c r="A80" s="12">
+    <row r="80" spans="1:50" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="30">
         <v>11177</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12" t="s">
+      <c r="B80" s="30"/>
+      <c r="C80" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="G80" s="30">
+        <v>2009</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>708</v>
+      </c>
+      <c r="I80" s="30" t="s">
         <v>709</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="J80" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K80" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="L80" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="M80" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N80" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="30"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="30"/>
+      <c r="U80" s="30"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="30"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="30"/>
+      <c r="AD80" s="30"/>
+      <c r="AE80" s="30"/>
+      <c r="AF80" s="30"/>
+      <c r="AG80" s="30"/>
+      <c r="AH80" s="30"/>
+      <c r="AI80" s="30"/>
+      <c r="AJ80" s="30"/>
+      <c r="AK80" s="30"/>
+      <c r="AL80" s="30"/>
+      <c r="AM80" s="30"/>
+      <c r="AN80" s="30" t="s">
         <v>710</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="G80" s="12">
-        <v>2009</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="M80" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N80" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O80" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P80" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="U80" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="V80" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W80" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="X80" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="Y80" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="Z80" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA80" s="12">
-        <v>1642.5</v>
-      </c>
-      <c r="AB80" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC80" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD80" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE80" s="12"/>
-      <c r="AF80" s="12"/>
-      <c r="AG80" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH80" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI80" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="AJ80" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK80" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="AL80" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM80" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN80" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="AO80" s="12"/>
-      <c r="AP80" s="12"/>
-      <c r="AQ80" s="12"/>
-      <c r="AR80" s="12"/>
-      <c r="AS80" s="12"/>
-      <c r="AT80" s="12"/>
-      <c r="AU80" s="12"/>
-      <c r="AV80" s="12"/>
-      <c r="AW80" s="12"/>
-    </row>
-    <row r="81" spans="1:40" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AO80" s="30"/>
+      <c r="AP80" s="30"/>
+      <c r="AQ80" s="30"/>
+      <c r="AR80" s="30"/>
+      <c r="AS80" s="30"/>
+      <c r="AT80" s="30"/>
+      <c r="AU80" s="30"/>
+      <c r="AV80" s="30"/>
+      <c r="AW80" s="30"/>
+    </row>
+    <row r="81" spans="1:40" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="26">
         <v>1507</v>
       </c>
       <c r="B81" s="27"/>
       <c r="C81" s="27" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G81" s="26">
         <v>2018</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="I81" s="27" t="s">
         <v>176</v>
@@ -12119,15 +11938,15 @@
         <v>179</v>
       </c>
       <c r="W81" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X81" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Y81" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="Z81" s="31">
+        <v>716</v>
+      </c>
+      <c r="Z81" s="29">
         <v>281101</v>
       </c>
       <c r="AA81" s="27">
@@ -12166,31 +11985,31 @@
         <v>73</v>
       </c>
       <c r="AN81" s="27" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="82" spans="1:40" s="20" customFormat="1" ht="15.75" customHeight="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="26">
         <v>1507</v>
       </c>
       <c r="B82" s="27"/>
       <c r="C82" s="27" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G82" s="26">
         <v>2018</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="I82" s="27" t="s">
         <v>176</v>
@@ -12231,15 +12050,15 @@
         <v>179</v>
       </c>
       <c r="W82" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X82" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Y82" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="Z82" s="31">
+        <v>716</v>
+      </c>
+      <c r="Z82" s="29">
         <v>152104</v>
       </c>
       <c r="AA82" s="27">
@@ -12278,31 +12097,31 @@
         <v>73</v>
       </c>
       <c r="AN82" s="27" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="83" spans="1:40" s="20" customFormat="1" ht="15.75" customHeight="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="26">
         <v>1507</v>
       </c>
       <c r="B83" s="27"/>
       <c r="C83" s="27" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G83" s="26">
         <v>2018</v>
       </c>
       <c r="H83" s="27" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="I83" s="27" t="s">
         <v>176</v>
@@ -12343,15 +12162,15 @@
         <v>179</v>
       </c>
       <c r="W83" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X83" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Y83" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="Z83" s="31">
+        <v>718</v>
+      </c>
+      <c r="Z83" s="29">
         <v>134260</v>
       </c>
       <c r="AA83" s="27">
@@ -12390,31 +12209,31 @@
         <v>73</v>
       </c>
       <c r="AN83" s="27" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="84" spans="1:40" s="20" customFormat="1" ht="15.75" customHeight="1">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="26">
         <v>1507</v>
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="27" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G84" s="26">
         <v>2018</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="I84" s="27" t="s">
         <v>176</v>
@@ -12455,16 +12274,16 @@
         <v>179</v>
       </c>
       <c r="W84" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X84" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Y84" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="Z84" s="31" t="s">
-        <v>730</v>
+        <v>718</v>
+      </c>
+      <c r="Z84" s="29" t="s">
+        <v>720</v>
       </c>
       <c r="AA84" s="27">
         <v>985.5</v>
@@ -12489,7 +12308,9 @@
       <c r="AI84" s="27" t="s">
         <v>611</v>
       </c>
-      <c r="AJ84" s="27"/>
+      <c r="AJ84" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="AK84" s="27" t="s">
         <v>71</v>
       </c>
@@ -12497,149 +12318,80 @@
         <v>227</v>
       </c>
       <c r="AM84" s="27" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="AN84" s="27" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="85" spans="1:40" s="28" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A85" s="28">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" s="31" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="31">
         <v>3686</v>
       </c>
-      <c r="C85" s="29" t="s">
-        <v>733</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>735</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>736</v>
-      </c>
-      <c r="G85" s="28">
+      <c r="C85" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="G85" s="31">
         <v>2004</v>
       </c>
-      <c r="H85" s="28" t="s">
-        <v>737</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>738</v>
-      </c>
-      <c r="J85" s="28" t="s">
+      <c r="H85" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="J85" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="K85" s="28" t="s">
+      <c r="K85" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="L85" s="28" t="s">
+      <c r="L85" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="M85" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="N85" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="O85" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="P85" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q85" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="R85" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="T85" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="U85" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="V85" s="28" t="s">
-        <v>739</v>
-      </c>
-      <c r="W85" s="28" t="s">
-        <v>740</v>
-      </c>
-      <c r="X85" s="28" t="s">
-        <v>741</v>
-      </c>
-      <c r="Y85" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z85" s="28" t="s">
-        <v>742</v>
-      </c>
-      <c r="AA85" s="28">
-        <v>1533</v>
-      </c>
-      <c r="AB85" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC85" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD85" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE85" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="AG85" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH85" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI85" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ85" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK85" s="28" t="s">
-        <v>743</v>
-      </c>
-      <c r="AL85" s="28" t="s">
-        <v>744</v>
-      </c>
-      <c r="AM85" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN85" s="28" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="86" spans="1:40" ht="15.95" customHeight="1">
+      <c r="M85" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N85" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN85" s="31" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>896</v>
       </c>
       <c r="C86" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="D86" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="E86" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="F86" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="G86">
         <v>2014</v>
       </c>
       <c r="H86" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="I86" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="J86" t="s">
         <v>177</v>
@@ -12654,7 +12406,7 @@
         <v>49</v>
       </c>
       <c r="O86" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P86" t="s">
         <v>51</v>
@@ -12666,27 +12418,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="15.95" customHeight="1">
+    <row r="87" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>7816</v>
       </c>
       <c r="C87" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="D87" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="E87" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F87" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G87">
         <v>2012</v>
       </c>
       <c r="H87" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="I87" t="s">
         <v>284</v>
@@ -12704,7 +12456,7 @@
         <v>49</v>
       </c>
       <c r="O87" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P87" t="s">
         <v>51</v>
@@ -12716,19 +12468,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="15.95" customHeight="1">
+    <row r="88" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>5811</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>245</v>
@@ -12737,7 +12489,7 @@
         <v>2018</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>150</v>
@@ -12756,7 +12508,7 @@
         <v>49</v>
       </c>
       <c r="O88" s="11" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P88" s="11" t="s">
         <v>51</v>
@@ -12777,33 +12529,33 @@
       <c r="AB88" s="11"/>
       <c r="AN88" s="11"/>
     </row>
-    <row r="89" spans="1:40" ht="15.95" customHeight="1">
+    <row r="89" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1887</v>
       </c>
       <c r="C89" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="D89" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="E89" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="F89" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="G89">
         <v>2008</v>
       </c>
       <c r="H89" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="I89" t="s">
         <v>87</v>
       </c>
       <c r="J89" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="K89" t="s">
         <v>47</v>
@@ -12815,7 +12567,7 @@
         <v>49</v>
       </c>
       <c r="O89" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P89" t="s">
         <v>51</v>
@@ -12824,30 +12576,30 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="15.95" customHeight="1">
+    <row r="90" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>5978</v>
       </c>
       <c r="C90" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="D90" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="E90" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="F90" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="G90">
         <v>2010</v>
       </c>
       <c r="H90" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="I90" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="J90" t="s">
         <v>177</v>
@@ -12862,7 +12614,7 @@
         <v>49</v>
       </c>
       <c r="O90" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P90" t="s">
         <v>51</v>
@@ -12871,27 +12623,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="15.95" customHeight="1">
+    <row r="91" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3295</v>
       </c>
       <c r="C91" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="D91" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="E91" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="F91" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="G91">
         <v>2008</v>
       </c>
       <c r="H91" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="I91" t="s">
         <v>123</v>
@@ -12909,7 +12661,7 @@
         <v>49</v>
       </c>
       <c r="O91" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P91" t="s">
         <v>51</v>
@@ -12918,30 +12670,30 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="15.95" customHeight="1">
+    <row r="92" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>5283</v>
       </c>
       <c r="C92" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="D92" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="E92" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F92" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G92">
         <v>2007</v>
       </c>
       <c r="H92" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="I92" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="J92" t="s">
         <v>88</v>
@@ -12956,33 +12708,33 @@
         <v>49</v>
       </c>
       <c r="O92" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P92" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="15.95" customHeight="1">
+    <row r="93" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>9769</v>
       </c>
       <c r="C93" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="D93" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="E93" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F93" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="G93">
         <v>2012</v>
       </c>
       <c r="H93" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="I93" t="s">
         <v>150</v>
@@ -13000,39 +12752,39 @@
         <v>49</v>
       </c>
       <c r="O93" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P93" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="15.95" customHeight="1">
+    <row r="94" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>357</v>
       </c>
       <c r="C94" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D94" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="E94" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="F94" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="G94">
         <v>2017</v>
       </c>
       <c r="H94" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="I94" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="J94" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="K94" t="s">
         <v>47</v>
@@ -13044,33 +12796,33 @@
         <v>49</v>
       </c>
       <c r="O94" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P94" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="15.95" customHeight="1">
+    <row r="95" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>8003</v>
       </c>
       <c r="C95" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="D95" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="E95" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="F95" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G95">
         <v>2017</v>
       </c>
       <c r="H95" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="I95" t="s">
         <v>87</v>
@@ -13088,40 +12840,40 @@
         <v>49</v>
       </c>
       <c r="O95" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P95" t="s">
         <v>51</v>
       </c>
       <c r="AN95" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="96" spans="1:40" ht="15.95" customHeight="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="12">
         <v>10932</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="G96" s="12">
         <v>2011</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="J96" s="12" t="s">
         <v>177</v>
@@ -13137,7 +12889,7 @@
         <v>49</v>
       </c>
       <c r="O96" s="12" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P96" s="12" t="s">
         <v>51</v>
@@ -13155,31 +12907,31 @@
       <c r="AA96" s="12"/>
       <c r="AB96" s="12"/>
     </row>
-    <row r="97" spans="1:30" ht="15.95" customHeight="1">
+    <row r="97" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="19">
         <v>440</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="19" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G97" s="19">
         <v>2018</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="J97" s="19" t="s">
         <v>88</v>
@@ -13195,7 +12947,7 @@
         <v>49</v>
       </c>
       <c r="O97" s="19" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P97" s="19" t="s">
         <v>51</v>
@@ -13215,31 +12967,31 @@
       <c r="AC97" s="19"/>
       <c r="AD97" s="19"/>
     </row>
-    <row r="98" spans="1:30" ht="15.95" customHeight="1">
+    <row r="98" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="19">
         <v>2015</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="19" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="G98" s="19">
         <v>2015</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="J98" s="19" t="s">
         <v>88</v>
@@ -13255,7 +13007,7 @@
         <v>49</v>
       </c>
       <c r="O98" s="19" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P98" s="19" t="s">
         <v>51</v>
@@ -13275,30 +13027,30 @@
       <c r="AC98" s="19"/>
       <c r="AD98" s="19"/>
     </row>
-    <row r="99" spans="1:30" ht="15.95" customHeight="1">
+    <row r="99" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>2396</v>
       </c>
       <c r="C99" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="D99" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="E99" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="F99" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G99">
         <v>2014</v>
       </c>
       <c r="H99" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="I99" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="J99" t="s">
         <v>88</v>
@@ -13313,7 +13065,7 @@
         <v>49</v>
       </c>
       <c r="O99" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P99" t="s">
         <v>51</v>
@@ -13325,34 +13077,34 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="15.95" customHeight="1">
+    <row r="100" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="12">
         <v>6945</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="G100" s="12">
         <v>2009</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>87</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="K100" s="12" t="s">
         <v>47</v>
@@ -13365,7 +13117,7 @@
         <v>49</v>
       </c>
       <c r="O100" s="12" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P100" s="12" t="s">
         <v>51</v>
@@ -13384,33 +13136,33 @@
       <c r="Z100" s="12"/>
       <c r="AA100" s="12"/>
     </row>
-    <row r="101" spans="1:30" ht="15.95" customHeight="1">
+    <row r="101" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>10759</v>
       </c>
       <c r="C101" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="D101" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="E101" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="F101" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="G101">
         <v>2020</v>
       </c>
       <c r="H101" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="I101" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="J101" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="K101" t="s">
         <v>361</v>
@@ -13422,7 +13174,7 @@
         <v>49</v>
       </c>
       <c r="O101" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P101" t="s">
         <v>51</v>
@@ -13431,30 +13183,30 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="15.95" customHeight="1">
+    <row r="102" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>5101</v>
       </c>
       <c r="C102" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D102" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="E102" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F102" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="G102">
         <v>2015</v>
       </c>
       <c r="H102" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="I102" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="J102" t="s">
         <v>88</v>
@@ -13469,36 +13221,36 @@
         <v>49</v>
       </c>
       <c r="O102" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P102" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="15.95" customHeight="1">
+    <row r="103" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>7225</v>
       </c>
       <c r="C103" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="D103" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="E103" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="F103" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="G103">
         <v>2016</v>
       </c>
       <c r="H103" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="I103" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="J103" t="s">
         <v>88</v>
@@ -13513,33 +13265,33 @@
         <v>49</v>
       </c>
       <c r="O103" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P103" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="15.95" customHeight="1">
+    <row r="104" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>7486</v>
       </c>
       <c r="C104" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="D104" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="E104" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="F104" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="G104">
         <v>2005</v>
       </c>
       <c r="H104" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="I104" t="s">
         <v>87</v>
@@ -13557,36 +13309,36 @@
         <v>49</v>
       </c>
       <c r="O104" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P104" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="15.95" customHeight="1">
+    <row r="105" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>7846</v>
       </c>
       <c r="C105" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="D105" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="E105" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="F105" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="G105">
         <v>2016</v>
       </c>
       <c r="H105" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="I105" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="J105" t="s">
         <v>88</v>
@@ -13601,36 +13353,36 @@
         <v>49</v>
       </c>
       <c r="O105" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P105" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="15.95" customHeight="1">
+    <row r="106" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1849</v>
       </c>
       <c r="C106" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="D106" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E106" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="F106" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="G106">
         <v>2016</v>
       </c>
       <c r="H106" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="I106" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="J106" t="s">
         <v>88</v>
@@ -13645,36 +13397,36 @@
         <v>49</v>
       </c>
       <c r="O106" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P106" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="15.95" customHeight="1">
+    <row r="107" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>213</v>
       </c>
       <c r="C107" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="D107" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="E107" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F107" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G107">
         <v>2018</v>
       </c>
       <c r="H107" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="I107" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="J107" t="s">
         <v>46</v>
@@ -13689,33 +13441,33 @@
         <v>49</v>
       </c>
       <c r="O107" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P107" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="15.95" customHeight="1">
+    <row r="108" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>5257</v>
       </c>
       <c r="C108" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="D108" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="E108" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="F108" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="G108">
         <v>2005</v>
       </c>
       <c r="H108" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="I108" t="s">
         <v>87</v>
@@ -13733,33 +13485,33 @@
         <v>49</v>
       </c>
       <c r="O108" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P108" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="15.95" customHeight="1">
+    <row r="109" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>10236</v>
       </c>
       <c r="C109" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="D109" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="E109" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="F109" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="G109">
         <v>2016</v>
       </c>
       <c r="H109" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="I109" t="s">
         <v>190</v>
@@ -13777,36 +13529,36 @@
         <v>49</v>
       </c>
       <c r="O109" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P109" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="15.95" customHeight="1">
+    <row r="110" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>5429</v>
       </c>
       <c r="C110" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="D110" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="E110" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="F110" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="G110">
         <v>2015</v>
       </c>
       <c r="H110" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="I110" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="J110" t="s">
         <v>88</v>
@@ -13821,36 +13573,36 @@
         <v>49</v>
       </c>
       <c r="O110" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P110" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="15.95" customHeight="1">
+    <row r="111" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>7166</v>
       </c>
       <c r="C111" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="D111" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="E111" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="F111" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="G111">
         <v>2020</v>
       </c>
       <c r="H111" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="I111" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="J111" t="s">
         <v>177</v>
@@ -13865,36 +13617,36 @@
         <v>49</v>
       </c>
       <c r="O111" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P111" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="15.95" customHeight="1">
+    <row r="112" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>10703</v>
       </c>
       <c r="C112" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="D112" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="E112" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="F112" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G112">
         <v>2016</v>
       </c>
       <c r="H112" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="I112" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="J112" t="s">
         <v>262</v>
@@ -13909,37 +13661,37 @@
         <v>49</v>
       </c>
       <c r="O112" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P112" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:40" ht="15.95" customHeight="1">
+    <row r="113" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="11">
         <v>5685</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="G113" s="11">
         <v>2007</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="J113" s="11" t="s">
         <v>88</v>
@@ -13955,7 +13707,7 @@
         <v>49</v>
       </c>
       <c r="O113" s="11" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P113" s="11" t="s">
         <v>51</v>
@@ -13974,28 +13726,28 @@
       <c r="AB113" s="11"/>
       <c r="AN113" s="11"/>
     </row>
-    <row r="114" spans="1:40" ht="15.95" customHeight="1">
+    <row r="114" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="12">
         <v>3508</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="G114" s="12">
         <v>2013</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="I114" s="12" t="s">
         <v>284</v>
@@ -14014,7 +13766,7 @@
         <v>49</v>
       </c>
       <c r="O114" s="12" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P114" s="12" t="s">
         <v>51</v>
@@ -14036,31 +13788,31 @@
       <c r="AC114" s="12"/>
       <c r="AD114" s="12"/>
     </row>
-    <row r="115" spans="1:40" ht="15.95" customHeight="1">
+    <row r="115" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="12">
         <v>440</v>
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="12" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G115" s="12">
         <v>2018</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="J115" s="12" t="s">
         <v>88</v>
@@ -14076,7 +13828,7 @@
         <v>49</v>
       </c>
       <c r="O115" s="12" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P115" s="12" t="s">
         <v>51</v>
@@ -14098,28 +13850,28 @@
       <c r="AC115" s="12"/>
       <c r="AD115" s="12"/>
     </row>
-    <row r="116" spans="1:40" ht="15.95" customHeight="1">
+    <row r="116" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="12">
         <v>3508</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="G116" s="12">
         <v>2013</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>284</v>
@@ -14138,7 +13890,7 @@
         <v>49</v>
       </c>
       <c r="O116" s="12" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P116" s="12" t="s">
         <v>51</v>
@@ -14161,31 +13913,31 @@
       <c r="AD116" s="12"/>
       <c r="AE116" s="12"/>
     </row>
-    <row r="117" spans="1:40" ht="15.95" customHeight="1">
+    <row r="117" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="12">
         <v>440</v>
       </c>
       <c r="B117" s="12"/>
       <c r="C117" s="12" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G117" s="12">
         <v>2018</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="J117" s="12" t="s">
         <v>88</v>
@@ -14201,7 +13953,7 @@
         <v>49</v>
       </c>
       <c r="O117" s="12" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P117" s="12" t="s">
         <v>51</v>
@@ -14224,33 +13976,33 @@
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
     </row>
-    <row r="118" spans="1:40" ht="15.95" customHeight="1">
+    <row r="118" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>8494</v>
       </c>
       <c r="C118" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="D118" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="E118" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="F118" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="G118">
         <v>2015</v>
       </c>
       <c r="H118" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="I118" t="s">
         <v>87</v>
       </c>
       <c r="J118" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="K118" t="s">
         <v>178</v>
@@ -14274,30 +14026,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="15.95" customHeight="1">
+    <row r="119" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>4882</v>
       </c>
       <c r="C119" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="D119" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="E119" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="F119" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="G119">
         <v>2017</v>
       </c>
       <c r="H119" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="I119" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
@@ -14324,30 +14076,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:40" ht="15.95" customHeight="1">
+    <row r="120" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1256</v>
       </c>
       <c r="C120" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="D120" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="E120" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="F120" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="G120">
         <v>2019</v>
       </c>
       <c r="H120" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="I120" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="J120" t="s">
         <v>46</v>
@@ -14374,27 +14126,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="15.95" customHeight="1">
+    <row r="121" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>6831</v>
       </c>
       <c r="C121" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="D121" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="E121" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="F121" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="G121">
         <v>2011</v>
       </c>
       <c r="H121" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="I121" t="s">
         <v>87</v>
@@ -14424,27 +14176,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="15.95" customHeight="1">
+    <row r="122" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>3595</v>
       </c>
       <c r="C122" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="D122" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="E122" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="F122" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="G122">
         <v>2011</v>
       </c>
       <c r="I122" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="J122" t="s">
         <v>88</v>
@@ -14471,27 +14223,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="15.95" customHeight="1">
+    <row r="123" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>4090</v>
       </c>
       <c r="C123" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="D123" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="E123" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="F123" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="G123">
         <v>2017</v>
       </c>
       <c r="H123" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="I123" t="s">
         <v>176</v>
@@ -14521,27 +14273,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="15.95" customHeight="1">
+    <row r="124" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>6089</v>
       </c>
       <c r="C124" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="D124" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="E124" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="F124" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="G124">
         <v>2018</v>
       </c>
       <c r="H124" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="I124" t="s">
         <v>190</v>
@@ -14571,30 +14323,30 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="15.95" customHeight="1">
+    <row r="125" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>3021</v>
       </c>
       <c r="C125" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="D125" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="E125" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="F125" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="G125">
         <v>2010</v>
       </c>
       <c r="H125" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="I125" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
@@ -14621,27 +14373,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="15.95" customHeight="1">
+    <row r="126" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>4258</v>
       </c>
       <c r="C126" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="D126" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="E126" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="F126" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="G126">
         <v>2013</v>
       </c>
       <c r="H126" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="I126" t="s">
         <v>87</v>
@@ -14671,27 +14423,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:40" ht="15.95" customHeight="1">
+    <row r="127" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>6356</v>
       </c>
       <c r="C127" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="D127" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="E127" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="F127" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="G127">
         <v>2015</v>
       </c>
       <c r="H127" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="I127" t="s">
         <v>45</v>
@@ -14721,31 +14473,31 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="15.95" customHeight="1">
+    <row r="128" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="11">
         <v>4776</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="11" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="G128" s="11">
         <v>2007</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="J128" s="11" t="s">
         <v>177</v>
@@ -14784,31 +14536,31 @@
       <c r="AB128" s="11"/>
       <c r="AN128" s="11"/>
     </row>
-    <row r="129" spans="1:40" ht="15.95" customHeight="1">
+    <row r="129" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="12">
         <v>8106</v>
       </c>
       <c r="B129" s="12"/>
       <c r="C129" s="12" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="G129" s="12">
         <v>2008</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="I129" s="12" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="J129" s="12" t="s">
         <v>262</v>
@@ -14845,27 +14597,27 @@
       <c r="Z129" s="12"/>
       <c r="AA129" s="12"/>
     </row>
-    <row r="130" spans="1:40" ht="15.95" customHeight="1">
+    <row r="130" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>9871</v>
       </c>
       <c r="C130" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="D130" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="E130" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="F130" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="G130">
         <v>2012</v>
       </c>
       <c r="H130" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="I130" t="s">
         <v>278</v>
@@ -14892,27 +14644,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="15.95" customHeight="1">
+    <row r="131" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>6966</v>
       </c>
       <c r="C131" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="D131" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="E131" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="F131" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="G131">
         <v>2018</v>
       </c>
       <c r="H131" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="I131" t="s">
         <v>190</v>
@@ -14939,27 +14691,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:40" ht="15.95" customHeight="1">
+    <row r="132" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>85</v>
       </c>
       <c r="C132" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="D132" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="E132" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="F132" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="G132">
         <v>2016</v>
       </c>
       <c r="H132" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="I132" t="s">
         <v>176</v>
@@ -14986,27 +14738,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="15.95" customHeight="1">
+    <row r="133" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>733</v>
       </c>
       <c r="C133" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="D133" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="E133" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="F133" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="G133">
         <v>2020</v>
       </c>
       <c r="H133" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="I133" t="s">
         <v>176</v>
@@ -15033,27 +14785,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="15.95" customHeight="1">
+    <row r="134" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1507</v>
       </c>
       <c r="C134" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D134" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E134" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F134" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G134">
         <v>2018</v>
       </c>
       <c r="H134" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="I134" t="s">
         <v>176</v>
@@ -15080,30 +14832,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="15.95" customHeight="1">
+    <row r="135" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>3964</v>
       </c>
       <c r="C135" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="D135" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="E135" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="F135" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G135">
         <v>2020</v>
       </c>
       <c r="H135" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="I135" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="J135" t="s">
         <v>88</v>
@@ -15127,30 +14879,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:40" ht="15.95" customHeight="1">
+    <row r="136" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>4153</v>
       </c>
       <c r="C136" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="D136" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="E136" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="F136" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="G136">
         <v>2016</v>
       </c>
       <c r="H136" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="I136" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="J136" t="s">
         <v>177</v>
@@ -15174,30 +14926,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="15.95" customHeight="1">
+    <row r="137" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>8770</v>
       </c>
       <c r="C137" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="D137" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="E137" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="F137" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="G137">
         <v>2013</v>
       </c>
       <c r="H137" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="I137" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="J137" t="s">
         <v>262</v>
@@ -15221,30 +14973,30 @@
         <v>51</v>
       </c>
       <c r="AN137" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="138" spans="1:40" ht="15.95" customHeight="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="138" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1031</v>
       </c>
       <c r="C138" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="D138" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
       <c r="E138" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="F138" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="G138">
         <v>2018</v>
       </c>
       <c r="H138" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
       <c r="I138" t="s">
         <v>176</v>
@@ -15271,27 +15023,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="15.95" customHeight="1">
+    <row r="139" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>3398</v>
       </c>
       <c r="C139" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="D139" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="E139" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
       <c r="F139" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="G139">
         <v>2014</v>
       </c>
       <c r="H139" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="I139" t="s">
         <v>176</v>
@@ -15318,30 +15070,30 @@
         <v>51</v>
       </c>
       <c r="AN139" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="140" spans="1:40" ht="15.95" customHeight="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>3911</v>
       </c>
       <c r="C140" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="D140" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="E140" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="F140" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="G140">
         <v>2017</v>
       </c>
       <c r="H140" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="I140" t="s">
         <v>150</v>
@@ -15368,27 +15120,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:40" ht="15.95" customHeight="1">
+    <row r="141" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>6368</v>
       </c>
       <c r="C141" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="D141" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
       <c r="E141" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="F141" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="G141">
         <v>2012</v>
       </c>
       <c r="H141" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="I141" t="s">
         <v>176</v>
@@ -15415,27 +15167,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="15.95" customHeight="1">
+    <row r="142" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>645</v>
       </c>
       <c r="C142" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="D142" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="E142" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
       <c r="F142" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
       <c r="G142">
         <v>2020</v>
       </c>
       <c r="H142" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="I142" t="s">
         <v>150</v>
@@ -15462,27 +15214,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:40" ht="15.95" customHeight="1">
+    <row r="143" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1635</v>
       </c>
       <c r="C143" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
       <c r="D143" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="E143" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="F143" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="G143">
         <v>2006</v>
       </c>
       <c r="H143" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="I143" t="s">
         <v>176</v>
@@ -15509,27 +15261,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="15.95" customHeight="1">
+    <row r="144" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>253</v>
       </c>
       <c r="C144" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="D144" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="E144" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="F144" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="G144">
         <v>2013</v>
       </c>
       <c r="H144" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
       <c r="I144" t="s">
         <v>150</v>
@@ -15556,27 +15308,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:40" ht="15.95" customHeight="1">
+    <row r="145" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>3178</v>
       </c>
       <c r="C145" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="D145" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="E145" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
       <c r="F145" t="s">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="G145">
         <v>2016</v>
       </c>
       <c r="H145" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
       <c r="I145" t="s">
         <v>45</v>
@@ -15603,27 +15355,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="15.95" customHeight="1">
+    <row r="146" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>4402</v>
       </c>
       <c r="C146" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
       <c r="D146" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="E146" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="F146" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="G146">
         <v>2018</v>
       </c>
       <c r="H146" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
       <c r="I146" t="s">
         <v>150</v>
@@ -15650,30 +15402,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:40" ht="15.95" customHeight="1">
+    <row r="147" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>7039</v>
       </c>
       <c r="C147" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
       <c r="D147" t="s">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="E147" t="s">
-        <v>1054</v>
+        <v>1038</v>
       </c>
       <c r="F147" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
       <c r="G147">
         <v>2017</v>
       </c>
       <c r="H147" t="s">
-        <v>1056</v>
+        <v>1040</v>
       </c>
       <c r="I147" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="J147" t="s">
         <v>177</v>
@@ -15697,27 +15449,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="15.95" customHeight="1">
+    <row r="148" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1308</v>
       </c>
       <c r="C148" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
       <c r="D148" t="s">
-        <v>1058</v>
+        <v>1042</v>
       </c>
       <c r="E148" t="s">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="F148" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="G148">
         <v>2012</v>
       </c>
       <c r="H148" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
       <c r="I148" t="s">
         <v>176</v>
@@ -15744,27 +15496,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:40" ht="15.95" customHeight="1">
+    <row r="149" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>2604</v>
       </c>
       <c r="C149" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="D149" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
       <c r="E149" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
       <c r="F149" t="s">
-        <v>1065</v>
+        <v>1049</v>
       </c>
       <c r="G149">
         <v>2015</v>
       </c>
       <c r="H149" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
       <c r="I149" t="s">
         <v>45</v>
@@ -15791,27 +15543,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="15.95" customHeight="1">
+    <row r="150" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>4188</v>
       </c>
       <c r="C150" t="s">
-        <v>1067</v>
+        <v>1051</v>
       </c>
       <c r="D150" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
       <c r="E150" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="F150" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
       <c r="G150">
         <v>2020</v>
       </c>
       <c r="H150" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
       <c r="I150" t="s">
         <v>176</v>
@@ -15838,30 +15590,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:40" ht="15.95" customHeight="1">
+    <row r="151" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>10307</v>
       </c>
       <c r="C151" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="D151" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="E151" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="F151" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="G151">
         <v>2018</v>
       </c>
       <c r="H151" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
       <c r="I151" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="J151" t="s">
         <v>46</v>
@@ -15885,30 +15637,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="15.95" customHeight="1">
+    <row r="152" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>10712</v>
       </c>
       <c r="C152" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
       <c r="D152" t="s">
-        <v>1078</v>
+        <v>1062</v>
       </c>
       <c r="E152" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
       <c r="F152" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
       <c r="G152">
         <v>2010</v>
       </c>
       <c r="H152" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
       <c r="I152" t="s">
-        <v>1082</v>
+        <v>1066</v>
       </c>
       <c r="J152" t="s">
         <v>88</v>
@@ -15932,31 +15684,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:40" ht="15.95" customHeight="1">
+    <row r="153" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="12">
         <v>6621</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
       <c r="G153" s="12">
         <v>2012</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="J153" s="12" t="s">
         <v>177</v>
@@ -15992,28 +15744,28 @@
       <c r="AA153" s="12"/>
       <c r="AB153" s="12"/>
     </row>
-    <row r="154" spans="1:40" ht="15.95" customHeight="1">
+    <row r="154" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="12">
         <v>7854</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>1090</v>
+        <v>1074</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="G154" s="12">
         <v>2011</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
       <c r="I154" s="12" t="s">
         <v>87</v>
@@ -16052,31 +15804,31 @@
       <c r="AA154" s="12"/>
       <c r="AB154" s="12"/>
     </row>
-    <row r="155" spans="1:40" ht="15.95" customHeight="1">
+    <row r="155" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="12">
         <v>10446</v>
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
       <c r="G155" s="12">
         <v>2019</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
       <c r="J155" s="12" t="s">
         <v>177</v>
@@ -16112,27 +15864,27 @@
       <c r="AA155" s="12"/>
       <c r="AB155" s="12"/>
     </row>
-    <row r="156" spans="1:40" ht="15.95" customHeight="1">
+    <row r="156" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>2757</v>
       </c>
       <c r="C156" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="D156" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
       <c r="E156" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
       <c r="F156" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
       <c r="G156">
         <v>2007</v>
       </c>
       <c r="I156" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="J156" t="s">
         <v>177</v>
@@ -16147,7 +15899,7 @@
         <v>49</v>
       </c>
       <c r="O156" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P156" t="s">
         <v>53</v>
@@ -16156,27 +15908,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="157" spans="1:40" ht="15.95" customHeight="1">
+    <row r="157" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>10389</v>
       </c>
       <c r="C157" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="D157" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
       <c r="E157" t="s">
-        <v>1106</v>
+        <v>1090</v>
       </c>
       <c r="F157" t="s">
-        <v>1107</v>
+        <v>1091</v>
       </c>
       <c r="G157">
         <v>2018</v>
       </c>
       <c r="H157" t="s">
-        <v>1108</v>
+        <v>1092</v>
       </c>
       <c r="I157" t="s">
         <v>190</v>
@@ -16194,7 +15946,7 @@
         <v>49</v>
       </c>
       <c r="O157" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P157" t="s">
         <v>53</v>
@@ -16203,30 +15955,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="158" spans="1:40" ht="15.95" customHeight="1">
+    <row r="158" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>4252</v>
       </c>
       <c r="C158" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
       <c r="D158" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="E158" t="s">
-        <v>1111</v>
+        <v>1095</v>
       </c>
       <c r="F158" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
       <c r="G158">
         <v>2020</v>
       </c>
       <c r="H158" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
       <c r="I158" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
       <c r="J158" t="s">
         <v>88</v>
@@ -16256,29 +16008,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:40" ht="15.95" customHeight="1">
+    <row r="159" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="12">
         <v>10689</v>
       </c>
       <c r="B159" s="12"/>
       <c r="C159" s="12" t="s">
-        <v>1115</v>
+        <v>1099</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>1116</v>
+        <v>1100</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>1117</v>
+        <v>1101</v>
       </c>
       <c r="G159" s="12">
         <v>2014</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="12" t="s">
-        <v>1118</v>
+        <v>1102</v>
       </c>
       <c r="J159" s="12" t="s">
         <v>177</v>
@@ -16318,27 +16070,27 @@
       <c r="AA159" s="12"/>
       <c r="AB159" s="12"/>
     </row>
-    <row r="160" spans="1:40" ht="15.95" customHeight="1">
+    <row r="160" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>22</v>
       </c>
       <c r="C160" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="D160" t="s">
-        <v>1120</v>
+        <v>1104</v>
       </c>
       <c r="E160" t="s">
-        <v>1121</v>
+        <v>1105</v>
       </c>
       <c r="F160" t="s">
-        <v>1122</v>
+        <v>1106</v>
       </c>
       <c r="G160">
         <v>2010</v>
       </c>
       <c r="H160" t="s">
-        <v>1123</v>
+        <v>1107</v>
       </c>
       <c r="I160" t="s">
         <v>176</v>
@@ -16368,33 +16120,33 @@
         <v>51</v>
       </c>
       <c r="AN160" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="161" spans="1:40" ht="15.95" customHeight="1">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>8011</v>
       </c>
       <c r="C161" t="s">
-        <v>1125</v>
+        <v>1109</v>
       </c>
       <c r="D161" t="s">
-        <v>1126</v>
+        <v>1110</v>
       </c>
       <c r="E161" t="s">
-        <v>1127</v>
+        <v>1111</v>
       </c>
       <c r="F161" t="s">
-        <v>1128</v>
+        <v>1112</v>
       </c>
       <c r="G161">
         <v>2011</v>
       </c>
       <c r="H161" t="s">
-        <v>1129</v>
+        <v>1113</v>
       </c>
       <c r="I161" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="J161" t="s">
         <v>46</v>
@@ -16421,30 +16173,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:40" ht="15.95" customHeight="1">
+    <row r="162" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>4574</v>
       </c>
       <c r="C162" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
       <c r="D162" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="E162" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
       <c r="F162" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
       <c r="G162">
         <v>2004</v>
       </c>
       <c r="H162" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
       <c r="I162" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
       <c r="J162" t="s">
         <v>46</v>
@@ -16471,30 +16223,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:40" ht="15.95" customHeight="1">
+    <row r="163" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>3686</v>
       </c>
       <c r="C163" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="D163" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E163" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F163" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G163">
         <v>2004</v>
       </c>
       <c r="H163" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="I163" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="J163" t="s">
         <v>177</v>
@@ -16521,31 +16273,31 @@
         <v>51</v>
       </c>
       <c r="AN163" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="164" spans="1:40" ht="15.95" customHeight="1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="12">
         <v>9987</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="12" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="G164" s="12">
         <v>2015</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
       <c r="I164" s="12" t="s">
         <v>176</v>
@@ -16584,33 +16336,33 @@
       <c r="Y164" s="12"/>
       <c r="Z164" s="12"/>
       <c r="AN164" s="12" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="165" spans="1:40" ht="15.95" customHeight="1">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>5553</v>
       </c>
       <c r="C165" t="s">
-        <v>1143</v>
+        <v>1127</v>
       </c>
       <c r="D165" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
       <c r="E165" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
       <c r="F165" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
       <c r="G165">
         <v>2012</v>
       </c>
       <c r="H165" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
       <c r="I165" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="J165" t="s">
         <v>177</v>
@@ -16637,28 +16389,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:40" ht="15.95" customHeight="1">
+    <row r="166" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="12">
         <v>10518</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="12" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
       <c r="G166" s="12">
         <v>2018</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
       <c r="I166" s="12" t="s">
         <v>176</v>
@@ -16699,31 +16451,31 @@
       <c r="AA166" s="12"/>
       <c r="AB166" s="12"/>
     </row>
-    <row r="167" spans="1:40" ht="15.95" customHeight="1">
+    <row r="167" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="12">
         <v>8538</v>
       </c>
       <c r="B167" s="12"/>
       <c r="C167" s="12" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
       <c r="G167" s="12">
         <v>2017</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J167" s="12" t="s">
         <v>46</v>
@@ -16760,27 +16512,27 @@
       <c r="Z167" s="12"/>
       <c r="AA167" s="12"/>
     </row>
-    <row r="168" spans="1:40" ht="15.95" customHeight="1">
+    <row r="168" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>7207</v>
       </c>
       <c r="C168" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
       <c r="D168" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="E168" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
       <c r="F168" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
       <c r="G168">
         <v>2018</v>
       </c>
       <c r="H168" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
       <c r="I168" t="s">
         <v>176</v>
@@ -16810,27 +16562,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:40" ht="15.95" customHeight="1">
+    <row r="169" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1716</v>
       </c>
       <c r="C169" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
       <c r="D169" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
       <c r="E169" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="F169" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
       <c r="G169">
         <v>2013</v>
       </c>
       <c r="H169" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
       <c r="I169" t="s">
         <v>87</v>
@@ -16860,30 +16612,30 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:40" ht="15.95" customHeight="1">
+    <row r="170" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1229</v>
       </c>
       <c r="C170" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
       <c r="D170" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="E170" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
       <c r="F170" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="G170">
         <v>2011</v>
       </c>
       <c r="H170" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="I170" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="J170" t="s">
         <v>177</v>
@@ -16907,33 +16659,33 @@
         <v>51</v>
       </c>
       <c r="AN170" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="171" spans="1:40" ht="15.95" customHeight="1">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="171" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>258</v>
       </c>
       <c r="C171" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="D171" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="E171" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
       <c r="F171" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
       <c r="G171">
         <v>2014</v>
       </c>
       <c r="H171" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
       <c r="I171" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="J171" t="s">
         <v>262</v>
@@ -16957,30 +16709,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:40" ht="15.95" customHeight="1">
+    <row r="172" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>1878</v>
       </c>
       <c r="C172" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
       <c r="D172" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="E172" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="F172" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="G172">
         <v>2006</v>
       </c>
       <c r="H172" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
       <c r="I172" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
@@ -17004,30 +16756,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:40" ht="15.95" customHeight="1">
+    <row r="173" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>2886</v>
       </c>
       <c r="C173" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="D173" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
       <c r="E173" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
       <c r="F173" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="G173">
         <v>2016</v>
       </c>
       <c r="H173" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="I173" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="J173" t="s">
         <v>177</v>
@@ -17051,30 +16803,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:40" ht="15.95" customHeight="1">
+    <row r="174" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>2512</v>
       </c>
       <c r="C174" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="D174" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="E174" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
       <c r="F174" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="G174">
         <v>2015</v>
       </c>
       <c r="H174" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="I174" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="J174" t="s">
         <v>46</v>
@@ -17098,27 +16850,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:40" ht="15.95" customHeight="1">
+    <row r="175" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>3862</v>
       </c>
       <c r="C175" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
       <c r="D175" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="E175" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
       <c r="F175" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="G175">
         <v>2012</v>
       </c>
       <c r="H175" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="I175" t="s">
         <v>663</v>
@@ -17145,27 +16897,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:40" ht="15">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>10198</v>
       </c>
       <c r="C176" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
       <c r="D176" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="E176" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="F176" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="G176">
         <v>2011</v>
       </c>
       <c r="H176" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="I176" t="s">
         <v>87</v>
@@ -17192,27 +16944,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:40" ht="15">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>9102</v>
       </c>
       <c r="C177" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="D177" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="E177" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="F177" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="G177">
         <v>2016</v>
       </c>
       <c r="H177" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="I177" t="s">
         <v>87</v>
@@ -17239,33 +16991,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:40" ht="15">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>9273</v>
       </c>
       <c r="C178" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
       <c r="D178" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
       <c r="E178" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
       <c r="F178" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
       <c r="G178">
         <v>2020</v>
       </c>
       <c r="H178" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="I178" t="s">
         <v>45</v>
       </c>
       <c r="J178" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="K178" t="s">
         <v>151</v>
@@ -17286,27 +17038,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:40" ht="15">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>11181</v>
       </c>
       <c r="C179" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
       <c r="D179" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="E179" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
       <c r="F179" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="G179">
         <v>2010</v>
       </c>
       <c r="H179" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
       <c r="I179" t="s">
         <v>176</v>
@@ -17333,31 +17085,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:40" ht="15">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A180" s="12">
         <v>7350</v>
       </c>
       <c r="B180" s="12"/>
       <c r="C180" s="12" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="G180" s="12">
         <v>2019</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="I180" s="12" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="J180" s="12" t="s">
         <v>46</v>
@@ -17393,30 +17145,30 @@
       <c r="AA180" s="12"/>
       <c r="AB180" s="12"/>
     </row>
-    <row r="181" spans="1:40" ht="15">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>1336</v>
       </c>
       <c r="C181" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="D181" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
       <c r="E181" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
       <c r="F181" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="G181">
         <v>2016</v>
       </c>
       <c r="H181" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="I181" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="J181" t="s">
         <v>88</v>
@@ -17431,7 +17183,7 @@
         <v>49</v>
       </c>
       <c r="O181" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P181" t="s">
         <v>52</v>
@@ -17440,31 +17192,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:40" ht="15">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A182" s="11">
         <v>4758</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11" t="s">
-        <v>1234</v>
+        <v>1218</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="G182" s="11">
         <v>2003</v>
       </c>
       <c r="H182" s="11" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
       <c r="J182" s="11" t="s">
         <v>88</v>
@@ -17480,7 +17232,7 @@
         <v>49</v>
       </c>
       <c r="O182" s="11" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P182" s="11" t="s">
         <v>52</v>
@@ -17501,28 +17253,28 @@
       <c r="AB182" s="11"/>
       <c r="AN182" s="11"/>
     </row>
-    <row r="183" spans="1:40" ht="15">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A183" s="11">
         <v>4839</v>
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11" t="s">
-        <v>1240</v>
+        <v>1224</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>1242</v>
+        <v>1226</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>1243</v>
+        <v>1227</v>
       </c>
       <c r="G183" s="11">
         <v>2019</v>
       </c>
       <c r="H183" s="11" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
       <c r="I183" s="11" t="s">
         <v>87</v>
@@ -17566,31 +17318,31 @@
       <c r="AB183" s="11"/>
       <c r="AN183" s="11"/>
     </row>
-    <row r="184" spans="1:40" ht="15">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A184" s="11">
         <v>4218</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11" t="s">
-        <v>1245</v>
+        <v>1229</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="G184" s="11">
         <v>2014</v>
       </c>
       <c r="H184" s="11" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="J184" s="11" t="s">
         <v>46</v>
@@ -17629,27 +17381,27 @@
       <c r="AB184" s="11"/>
       <c r="AN184" s="11"/>
     </row>
-    <row r="185" spans="1:40" ht="15">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>2490</v>
       </c>
       <c r="C185" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="D185" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="E185" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="F185" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="G185">
         <v>2006</v>
       </c>
       <c r="I185" t="s">
-        <v>1118</v>
+        <v>1102</v>
       </c>
       <c r="J185" t="s">
         <v>88</v>
@@ -17678,27 +17430,27 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:40" ht="15">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1815</v>
       </c>
       <c r="C186" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="D186" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="E186" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="F186" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="G186">
         <v>2020</v>
       </c>
       <c r="H186" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="I186" t="s">
         <v>87</v>
@@ -17716,7 +17468,7 @@
         <v>49</v>
       </c>
       <c r="O186" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P186" t="s">
         <v>54</v>
@@ -17731,29 +17483,29 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="1:40" ht="15">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A187" s="12">
         <v>10176</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="12" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="G187" s="12">
         <v>2016</v>
       </c>
       <c r="H187" s="12"/>
       <c r="I187" s="12" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="J187" s="12" t="s">
         <v>177</v>
@@ -17769,7 +17521,7 @@
         <v>49</v>
       </c>
       <c r="O187" s="12" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="P187" s="12" t="s">
         <v>54</v>
@@ -17789,33 +17541,33 @@
       <c r="Y187" s="12"/>
       <c r="Z187" s="12"/>
       <c r="AN187" s="12" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="188" spans="1:40" ht="15">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>3586</v>
       </c>
       <c r="C188" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
       <c r="D188" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
       <c r="E188" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
       <c r="F188" t="s">
-        <v>1269</v>
+        <v>1253</v>
       </c>
       <c r="G188">
         <v>2020</v>
       </c>
       <c r="H188" t="s">
-        <v>1270</v>
+        <v>1254</v>
       </c>
       <c r="I188" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="J188" t="s">
         <v>88</v>
@@ -17830,7 +17582,7 @@
         <v>49</v>
       </c>
       <c r="O188" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P188" t="s">
         <v>54</v>
@@ -17845,30 +17597,30 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:40" ht="15">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>11072</v>
       </c>
       <c r="C189" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
       <c r="D189" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
       <c r="E189" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="F189" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
       <c r="G189">
         <v>2021</v>
       </c>
       <c r="H189" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="I189" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="J189" t="s">
         <v>88</v>
@@ -17883,7 +17635,7 @@
         <v>49</v>
       </c>
       <c r="O189" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P189" t="s">
         <v>54</v>
@@ -17895,30 +17647,30 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:40" ht="15">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1867</v>
       </c>
       <c r="C190" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="D190" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
       <c r="E190" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
       <c r="F190" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="G190">
         <v>2018</v>
       </c>
       <c r="H190" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
       <c r="I190" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="J190" t="s">
         <v>88</v>
@@ -17933,7 +17685,7 @@
         <v>49</v>
       </c>
       <c r="O190" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P190" t="s">
         <v>54</v>
@@ -17942,31 +17694,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="191" spans="1:40" ht="15">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A191" s="12">
         <v>50</v>
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="12" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="G191" s="12">
         <v>2013</v>
       </c>
       <c r="H191" s="12" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="J191" s="12" t="s">
         <v>88</v>
@@ -17982,7 +17734,7 @@
         <v>49</v>
       </c>
       <c r="O191" s="12" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P191" s="12" t="s">
         <v>54</v>
@@ -18005,31 +17757,31 @@
       <c r="AB191" s="12"/>
       <c r="AC191" s="12"/>
       <c r="AN191" s="12" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="192" spans="1:40" ht="15">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="192" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A192" s="12">
         <v>122</v>
       </c>
       <c r="B192" s="12"/>
       <c r="C192" s="12" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="G192" s="12">
         <v>2006</v>
       </c>
       <c r="H192" s="12" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="I192" s="12" t="s">
         <v>87</v>
@@ -18072,31 +17824,31 @@
       <c r="AC192" s="12"/>
       <c r="AD192" s="12"/>
       <c r="AN192" s="12" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="193" spans="1:40" ht="15">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="193" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A193" s="12">
         <v>2617</v>
       </c>
       <c r="B193" s="12"/>
       <c r="C193" s="12" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
       <c r="G193" s="12">
         <v>2020</v>
       </c>
       <c r="H193" s="12" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
       <c r="I193" s="12" t="s">
         <v>176</v>
@@ -18139,31 +17891,31 @@
       <c r="AE193" s="12"/>
       <c r="AN193" s="12"/>
     </row>
-    <row r="194" spans="1:40" ht="15">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A194" s="12">
         <v>91</v>
       </c>
       <c r="B194" s="12"/>
       <c r="C194" s="12" t="s">
-        <v>1299</v>
+        <v>1283</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>1300</v>
+        <v>1284</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>1301</v>
+        <v>1285</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>1302</v>
+        <v>1286</v>
       </c>
       <c r="G194" s="12">
         <v>2009</v>
       </c>
       <c r="H194" s="12" t="s">
-        <v>1303</v>
+        <v>1287</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="J194" s="12" t="s">
         <v>46</v>
@@ -18201,31 +17953,31 @@
       <c r="AC194" s="12"/>
       <c r="AD194" s="12"/>
       <c r="AN194" s="12" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="195" spans="1:40" ht="15">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="195" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A195" s="12">
         <v>2489</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="12" t="s">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>1306</v>
+        <v>1290</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="G195" s="12">
         <v>2019</v>
       </c>
       <c r="H195" s="12" t="s">
-        <v>1309</v>
+        <v>1293</v>
       </c>
       <c r="I195" s="12" t="s">
         <v>176</v>
@@ -18267,34 +18019,34 @@
       <c r="AB195" s="12"/>
       <c r="AC195" s="12"/>
       <c r="AN195" s="12" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="196" spans="1:40" ht="15">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="196" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A196" s="12">
         <v>9785</v>
       </c>
       <c r="B196" s="12"/>
       <c r="C196" s="12" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>1312</v>
+        <v>1296</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>1313</v>
+        <v>1297</v>
       </c>
       <c r="G196" s="12">
         <v>2019</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
       <c r="J196" s="12" t="s">
         <v>88</v>
@@ -18333,31 +18085,31 @@
       <c r="AB196" s="12"/>
       <c r="AC196" s="12"/>
       <c r="AN196" s="12" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="197" spans="1:40" ht="15">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="197" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A197" s="12">
         <v>3661</v>
       </c>
       <c r="B197" s="12"/>
       <c r="C197" s="12" t="s">
-        <v>1316</v>
+        <v>1300</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="G197" s="12">
         <v>2009</v>
       </c>
       <c r="H197" s="12" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
       <c r="I197" s="12" t="s">
         <v>234</v>
@@ -18398,31 +18150,31 @@
       <c r="AC197" s="12"/>
       <c r="AD197" s="12"/>
       <c r="AN197" s="12" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="198" spans="1:40" ht="15">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="198" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A198" s="12">
         <v>3859</v>
       </c>
       <c r="B198" s="12"/>
       <c r="C198" s="12" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="G198" s="12">
         <v>2016</v>
       </c>
       <c r="H198" s="12" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
       <c r="I198" s="12" t="s">
         <v>150</v>
@@ -18463,31 +18215,31 @@
       <c r="AC198" s="12"/>
       <c r="AD198" s="12"/>
       <c r="AN198" s="12" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="199" spans="1:40" ht="15">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="199" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A199" s="12">
         <v>8869</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="12" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="G199" s="12">
         <v>2010</v>
       </c>
       <c r="H199" s="12" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="I199" s="12" t="s">
         <v>176</v>
@@ -18528,31 +18280,31 @@
       <c r="AC199" s="12"/>
       <c r="AD199" s="12"/>
       <c r="AN199" s="12" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="200" spans="1:40" ht="15">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="200" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A200" s="12">
         <v>10159</v>
       </c>
       <c r="B200" s="12"/>
       <c r="C200" s="12" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
       <c r="G200" s="12">
         <v>2017</v>
       </c>
       <c r="H200" s="12" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="I200" s="12" t="s">
         <v>176</v>
@@ -18595,31 +18347,31 @@
       <c r="AE200" s="12"/>
       <c r="AN200" s="12"/>
     </row>
-    <row r="201" spans="1:40" ht="15">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A201" s="12">
         <v>10426</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="12" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="G201" s="12">
         <v>2017</v>
       </c>
       <c r="H201" s="12" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="J201" s="12" t="s">
         <v>88</v>
@@ -18659,28 +18411,28 @@
       <c r="AE201" s="12"/>
       <c r="AN201" s="12"/>
     </row>
-    <row r="202" spans="1:40" ht="15">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A202" s="12">
         <v>1630</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="12" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="G202" s="12">
         <v>2016</v>
       </c>
       <c r="H202" s="12" t="s">
-        <v>1347</v>
+        <v>1331</v>
       </c>
       <c r="I202" s="12" t="s">
         <v>87</v>
@@ -18724,28 +18476,28 @@
       <c r="AD202" s="12"/>
       <c r="AE202" s="12"/>
     </row>
-    <row r="203" spans="1:40" ht="15">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A203" s="12">
         <v>2599</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="12" t="s">
-        <v>1348</v>
+        <v>1332</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>1349</v>
+        <v>1333</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>1350</v>
+        <v>1334</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>1351</v>
+        <v>1335</v>
       </c>
       <c r="G203" s="12">
         <v>2011</v>
       </c>
       <c r="H203" s="12" t="s">
-        <v>1352</v>
+        <v>1336</v>
       </c>
       <c r="I203" s="12" t="s">
         <v>176</v>
@@ -18789,31 +18541,31 @@
       <c r="AD203" s="12"/>
       <c r="AE203" s="12"/>
     </row>
-    <row r="204" spans="1:40" ht="15">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A204" s="12">
         <v>2650</v>
       </c>
       <c r="B204" s="12"/>
       <c r="C204" s="12" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>1354</v>
+        <v>1338</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>1356</v>
+        <v>1340</v>
       </c>
       <c r="G204" s="12">
         <v>2010</v>
       </c>
       <c r="H204" s="12" t="s">
-        <v>1357</v>
+        <v>1341</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="J204" s="12" t="s">
         <v>88</v>
@@ -18854,28 +18606,28 @@
       <c r="AD204" s="12"/>
       <c r="AE204" s="12"/>
     </row>
-    <row r="205" spans="1:40" ht="15">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A205" s="12">
         <v>6419</v>
       </c>
       <c r="B205" s="12"/>
       <c r="C205" s="12" t="s">
-        <v>1358</v>
+        <v>1342</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>1359</v>
+        <v>1343</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>1361</v>
+        <v>1345</v>
       </c>
       <c r="G205" s="12">
         <v>2010</v>
       </c>
       <c r="H205" s="12" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
       <c r="I205" s="12" t="s">
         <v>87</v>
@@ -18919,27 +18671,27 @@
       <c r="AD205" s="12"/>
       <c r="AE205" s="12"/>
     </row>
-    <row r="206" spans="1:40" ht="15.95" customHeight="1">
+    <row r="206" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>1847</v>
       </c>
       <c r="C206" t="s">
-        <v>1363</v>
+        <v>1347</v>
       </c>
       <c r="D206" t="s">
-        <v>1364</v>
+        <v>1348</v>
       </c>
       <c r="E206" t="s">
-        <v>1365</v>
+        <v>1349</v>
       </c>
       <c r="F206" t="s">
-        <v>1366</v>
+        <v>1350</v>
       </c>
       <c r="G206">
         <v>2014</v>
       </c>
       <c r="H206" t="s">
-        <v>1367</v>
+        <v>1351</v>
       </c>
       <c r="I206" t="s">
         <v>87</v>
@@ -18972,30 +18724,30 @@
         <v>52</v>
       </c>
       <c r="AN206" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="207" spans="1:40" ht="15.95" customHeight="1">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="207" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>6968</v>
       </c>
       <c r="C207" t="s">
-        <v>1369</v>
+        <v>1353</v>
       </c>
       <c r="D207" t="s">
-        <v>1370</v>
+        <v>1354</v>
       </c>
       <c r="E207" t="s">
-        <v>1371</v>
+        <v>1355</v>
       </c>
       <c r="F207" t="s">
-        <v>1372</v>
+        <v>1356</v>
       </c>
       <c r="G207">
         <v>2016</v>
       </c>
       <c r="H207" t="s">
-        <v>1373</v>
+        <v>1357</v>
       </c>
       <c r="I207" t="s">
         <v>150</v>
@@ -19028,34 +18780,34 @@
         <v>52</v>
       </c>
       <c r="AN207" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="208" spans="1:40" ht="15.95" customHeight="1">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="208" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="11">
         <v>3327</v>
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="11" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>1377</v>
+        <v>1361</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="G208" s="11">
         <v>2006</v>
       </c>
       <c r="H208" s="11" t="s">
-        <v>1378</v>
+        <v>1362</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>1379</v>
+        <v>1363</v>
       </c>
       <c r="J208" s="11" t="s">
         <v>46</v>
@@ -19095,31 +18847,31 @@
       <c r="AA208" s="11"/>
       <c r="AB208" s="11"/>
       <c r="AN208" s="11" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="209" spans="1:49" ht="15.95" customHeight="1">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:49" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="12">
         <v>10158</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="12" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>1383</v>
+        <v>1367</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>1384</v>
+        <v>1368</v>
       </c>
       <c r="G209" s="12">
         <v>2011</v>
       </c>
       <c r="H209" s="12" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="I209" s="12" t="s">
         <v>385</v>
@@ -19161,34 +18913,34 @@
       <c r="Z209" s="12"/>
       <c r="AB209" s="12"/>
       <c r="AN209" s="12" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="210" spans="1:49" ht="15">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="210" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A210" s="12">
         <v>6173</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="12" t="s">
-        <v>1387</v>
+        <v>1371</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>1388</v>
+        <v>1372</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>1389</v>
+        <v>1373</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>1390</v>
+        <v>1374</v>
       </c>
       <c r="G210" s="12">
         <v>2019</v>
       </c>
       <c r="H210" s="12" t="s">
-        <v>1391</v>
+        <v>1375</v>
       </c>
       <c r="I210" s="12" t="s">
-        <v>1392</v>
+        <v>1376</v>
       </c>
       <c r="J210" s="12" t="s">
         <v>88</v>
@@ -19204,7 +18956,7 @@
         <v>49</v>
       </c>
       <c r="O210" s="12" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P210" s="12" t="s">
         <v>54</v>
@@ -19245,31 +18997,31 @@
       <c r="AV210" s="12"/>
       <c r="AW210" s="12"/>
     </row>
-    <row r="211" spans="1:49" ht="15">
+    <row r="211" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A211" s="12">
         <v>3842</v>
       </c>
       <c r="B211" s="12"/>
       <c r="C211" s="12" t="s">
-        <v>1393</v>
+        <v>1377</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>1394</v>
+        <v>1378</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>1395</v>
+        <v>1379</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>1396</v>
+        <v>1380</v>
       </c>
       <c r="G211" s="12">
         <v>2002</v>
       </c>
       <c r="H211" s="12" t="s">
-        <v>1397</v>
+        <v>1381</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>1398</v>
+        <v>1382</v>
       </c>
       <c r="J211" s="12" t="s">
         <v>88</v>
@@ -19328,28 +19080,28 @@
       <c r="AV211" s="12"/>
       <c r="AW211" s="12"/>
     </row>
-    <row r="212" spans="1:49" ht="15">
+    <row r="212" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A212" s="12">
         <v>5849</v>
       </c>
       <c r="B212" s="12"/>
       <c r="C212" s="12" t="s">
-        <v>1399</v>
+        <v>1383</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>1402</v>
+        <v>1386</v>
       </c>
       <c r="G212" s="12">
         <v>2013</v>
       </c>
       <c r="H212" s="12" t="s">
-        <v>1403</v>
+        <v>1387</v>
       </c>
       <c r="I212" s="12" t="s">
         <v>176</v>
@@ -19409,31 +19161,31 @@
       <c r="AV212" s="12"/>
       <c r="AW212" s="12"/>
     </row>
-    <row r="213" spans="1:49" ht="15">
+    <row r="213" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A213" s="12">
         <v>1817</v>
       </c>
       <c r="B213" s="12"/>
       <c r="C213" s="12" t="s">
-        <v>1404</v>
+        <v>1388</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
       <c r="G213" s="12">
         <v>2013</v>
       </c>
       <c r="H213" s="12" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="I213" s="12" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="J213" s="12" t="s">
         <v>88</v>
@@ -19482,7 +19234,7 @@
       <c r="AL213" s="12"/>
       <c r="AM213" s="12"/>
       <c r="AN213" s="12" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="AO213" s="12"/>
       <c r="AP213" s="12"/>
@@ -19493,28 +19245,28 @@
       <c r="AU213" s="12"/>
       <c r="AV213" s="12"/>
     </row>
-    <row r="214" spans="1:49" ht="15">
+    <row r="214" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A214" s="12">
         <v>8189</v>
       </c>
       <c r="B214" s="12"/>
       <c r="C214" s="12" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>1412</v>
+        <v>1396</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>1413</v>
+        <v>1397</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>1414</v>
+        <v>1398</v>
       </c>
       <c r="G214" s="12">
         <v>2017</v>
       </c>
       <c r="H214" s="12" t="s">
-        <v>1415</v>
+        <v>1399</v>
       </c>
       <c r="I214" s="12" t="s">
         <v>113</v>
@@ -19575,31 +19327,31 @@
       <c r="AU214" s="12"/>
       <c r="AV214" s="12"/>
     </row>
-    <row r="215" spans="1:49" ht="15">
+    <row r="215" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A215" s="19">
         <v>2708</v>
       </c>
       <c r="B215" s="19"/>
       <c r="C215" s="19" t="s">
-        <v>1416</v>
+        <v>1400</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>1417</v>
+        <v>1401</v>
       </c>
       <c r="E215" s="19" t="s">
-        <v>1418</v>
+        <v>1402</v>
       </c>
       <c r="F215" s="19" t="s">
-        <v>1419</v>
+        <v>1403</v>
       </c>
       <c r="G215" s="19">
         <v>2017</v>
       </c>
       <c r="H215" s="19" t="s">
-        <v>1420</v>
+        <v>1404</v>
       </c>
       <c r="I215" s="19" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="J215" s="19" t="s">
         <v>46</v>
@@ -19637,28 +19389,28 @@
       <c r="AC215" s="19"/>
       <c r="AD215" s="19"/>
     </row>
-    <row r="216" spans="1:49" ht="15">
+    <row r="216" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A216" s="19">
         <v>5120</v>
       </c>
       <c r="B216" s="19"/>
       <c r="C216" s="19" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>1422</v>
+        <v>1406</v>
       </c>
       <c r="E216" s="19" t="s">
-        <v>1423</v>
+        <v>1407</v>
       </c>
       <c r="F216" s="19" t="s">
-        <v>1424</v>
+        <v>1408</v>
       </c>
       <c r="G216" s="19">
         <v>2010</v>
       </c>
       <c r="H216" s="19" t="s">
-        <v>1425</v>
+        <v>1409</v>
       </c>
       <c r="I216" s="19" t="s">
         <v>87</v>
@@ -19700,31 +19452,31 @@
       <c r="AB216" s="19"/>
       <c r="AC216" s="19"/>
     </row>
-    <row r="217" spans="1:49" ht="15">
+    <row r="217" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A217" s="19">
         <v>6794</v>
       </c>
       <c r="B217" s="19"/>
       <c r="C217" s="19" t="s">
-        <v>1426</v>
+        <v>1410</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="E217" s="19" t="s">
-        <v>1428</v>
+        <v>1412</v>
       </c>
       <c r="F217" s="19" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="G217" s="19">
         <v>2006</v>
       </c>
       <c r="H217" s="19" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="I217" s="19" t="s">
-        <v>1431</v>
+        <v>1415</v>
       </c>
       <c r="J217" s="19" t="s">
         <v>88</v>
@@ -19762,28 +19514,28 @@
       <c r="AC217" s="19"/>
       <c r="AD217" s="19"/>
     </row>
-    <row r="218" spans="1:49" ht="15">
+    <row r="218" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A218" s="19">
         <v>9062</v>
       </c>
       <c r="B218" s="19"/>
       <c r="C218" s="19" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>1433</v>
+        <v>1417</v>
       </c>
       <c r="E218" s="19" t="s">
-        <v>1434</v>
+        <v>1418</v>
       </c>
       <c r="F218" s="19" t="s">
-        <v>1435</v>
+        <v>1419</v>
       </c>
       <c r="G218" s="19">
         <v>2017</v>
       </c>
       <c r="H218" s="19" t="s">
-        <v>1436</v>
+        <v>1420</v>
       </c>
       <c r="I218" s="19" t="s">
         <v>123</v>
@@ -19826,19 +19578,19 @@
       <c r="AC218" s="19"/>
       <c r="AD218" s="19"/>
     </row>
-    <row r="219" spans="1:49" s="20" customFormat="1" ht="15" customHeight="1">
+    <row r="219" spans="1:49" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="21">
         <v>2745</v>
       </c>
       <c r="B219" s="21"/>
       <c r="C219" s="21" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>1438</v>
+        <v>1422</v>
       </c>
       <c r="E219" s="21" t="s">
-        <v>1439</v>
+        <v>1423</v>
       </c>
       <c r="F219" s="21" t="s">
         <v>188</v>
@@ -19847,7 +19599,7 @@
         <v>2011</v>
       </c>
       <c r="H219" s="21" t="s">
-        <v>1440</v>
+        <v>1424</v>
       </c>
       <c r="I219" s="21" t="s">
         <v>176</v>
@@ -19899,14 +19651,9 @@
       <c r="AL219" s="21"/>
       <c r="AM219" s="21"/>
       <c r="AN219" s="21" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="220" spans="1:49" ht="15"/>
-    <row r="221" spans="1:49" ht="15"/>
-    <row r="222" spans="1:49" ht="15"/>
-    <row r="223" spans="1:49" ht="15"/>
-    <row r="224" spans="1:49" ht="15"/>
+        <v>1425</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO190">
     <sortCondition ref="L2:L190"/>
@@ -20039,23 +19786,23 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.86328125" customWidth="1"/>
+    <col min="8" max="8" width="20.1328125" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" customWidth="1"/>
+    <col min="14" max="14" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -20066,7 +19813,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1442</v>
+        <v>1426</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>20</v>
@@ -20078,7 +19825,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1443</v>
+        <v>1427</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>32</v>
@@ -20090,20 +19837,20 @@
         <v>34</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1445</v>
+        <v>1429</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -20126,7 +19873,7 @@
         <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1447</v>
+        <v>1431</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>212</v>
@@ -20138,20 +19885,20 @@
         <v>158</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>1448</v>
+        <v>1432</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1449</v>
+        <v>1433</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>115</v>
       </c>
@@ -20159,7 +19906,7 @@
         <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -20189,7 +19936,7 @@
         <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>73</v>
@@ -20199,13 +19946,13 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>53</v>
@@ -20231,25 +19978,25 @@
         <v>214</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1452</v>
+        <v>1436</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1453</v>
+        <v>1437</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>1454</v>
+        <v>1438</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -20264,18 +20011,18 @@
         <v>239</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>263</v>
@@ -20297,18 +20044,18 @@
         <v>624</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1458</v>
+        <v>1442</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1459</v>
+        <v>1443</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -20324,10 +20071,10 @@
         <v>129</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>314</v>
@@ -20335,10 +20082,10 @@
       <c r="O7" s="1"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -20351,21 +20098,21 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="10" t="s">
-        <v>1463</v>
+        <v>1447</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>1464</v>
+        <v>1448</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1465</v>
+        <v>1449</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>201</v>
@@ -20376,24 +20123,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="10" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>1469</v>
+        <v>1453</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="31.5">
+    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>248</v>
@@ -20410,19 +20157,19 @@
       <c r="J10" s="1"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>1470</v>
+        <v>1454</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>1471</v>
+        <v>1455</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75">
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>1472</v>
+        <v>1456</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -20434,14 +20181,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>1473</v>
+        <v>1457</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75">
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>422</v>
@@ -20456,17 +20203,17 @@
       <c r="J12" s="1"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>1474</v>
+        <v>1458</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75">
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -20483,7 +20230,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75">
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>116</v>
@@ -20503,7 +20250,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75">
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -20521,7 +20268,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75">
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -20539,7 +20286,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -20557,7 +20304,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -20575,7 +20322,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75">
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -20593,7 +20340,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75">
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -20611,7 +20358,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75">
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -20629,7 +20376,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75">
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
